--- a/grupo_1_tarefas_gd1_2022_2023.xlsx
+++ b/grupo_1_tarefas_gd1_2022_2023.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grupolusofona-my.sharepoint.com/personal/a22204782_alunos_ulht_pt/Documents/Desktop/fcul/GD1/pedro/tp2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grupolusofona-my.sharepoint.com/personal/a22204782_alunos_ulht_pt/Documents/Desktop/fcul/GD1/pedro/TP2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="528" documentId="8_{56E209A3-188A-46A9-A455-D8A92E3F104C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2F2ABFD5-6D03-482C-B66B-AC2BE9BAFDCE}"/>
+  <xr:revisionPtr revIDLastSave="648" documentId="8_{56E209A3-188A-46A9-A455-D8A92E3F104C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{478651B1-0789-469F-AC6B-FDA2C9F0BFF0}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{723344A6-F7A6-4053-B57C-0AA1409AC582}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{723344A6-F7A6-4053-B57C-0AA1409AC582}"/>
   </bookViews>
   <sheets>
     <sheet name="Geral" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="105">
   <si>
     <t>Roles</t>
   </si>
@@ -79,9 +79,6 @@
     <t>Finalize production of the game</t>
   </si>
   <si>
-    <t>Paper Prototype(Conceptual design)</t>
-  </si>
-  <si>
     <t>Fullfillment dates</t>
   </si>
   <si>
@@ -286,41 +283,86 @@
     <t>Completed Tasks</t>
   </si>
   <si>
-    <t>Fase 0</t>
-  </si>
-  <si>
-    <t>Unity</t>
-  </si>
-  <si>
     <t>Okapi Kit</t>
   </si>
   <si>
-    <t>pygame</t>
-  </si>
-  <si>
     <t>V/JM</t>
   </si>
   <si>
-    <t>base for game idea</t>
-  </si>
-  <si>
     <t>group</t>
   </si>
   <si>
     <t>1º aula, depois de formar grupo</t>
   </si>
   <si>
-    <t>1st prototype (pygame)</t>
-  </si>
-  <si>
-    <t>v</t>
+    <t>macro</t>
+  </si>
+  <si>
+    <t>jm</t>
+  </si>
+  <si>
+    <t>v and prof helped</t>
+  </si>
+  <si>
+    <t>design</t>
+  </si>
+  <si>
+    <t>jc, v</t>
+  </si>
+  <si>
+    <t>proto</t>
+  </si>
+  <si>
+    <t>basic idea for game</t>
+  </si>
+  <si>
+    <t>jm, v</t>
+  </si>
+  <si>
+    <t>find 5 game testers</t>
+  </si>
+  <si>
+    <t>c#, unity</t>
+  </si>
+  <si>
+    <t>basic sounds for character and obstacles</t>
+  </si>
+  <si>
+    <t>find 5 new game testers</t>
+  </si>
+  <si>
+    <t>pc</t>
+  </si>
+  <si>
+    <t>insert new mechanics and obstacles/enemies</t>
+  </si>
+  <si>
+    <t>simple images for character (imported)</t>
+  </si>
+  <si>
+    <t>get level music</t>
+  </si>
+  <si>
+    <t>get animations for level and characters</t>
+  </si>
+  <si>
+    <t>Finalize production of art and sound</t>
+  </si>
+  <si>
+    <t>Unity build</t>
+  </si>
+  <si>
+    <t>game mechanics</t>
+  </si>
+  <si>
+    <t>JM/JC/V</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -329,20 +371,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Garamond"/>
+      <family val="1"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Garamond"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Garamond"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Garamond"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="10">
@@ -401,7 +452,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -454,84 +505,387 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -553,6 +907,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -852,287 +1210,213 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EE9D655-58CD-4624-982D-FA45469B059D}">
-  <dimension ref="B1:G20"/>
+  <dimension ref="B1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3" style="3" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="36.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="3" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="36.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="24" t="s">
+    <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="2">
+        <v>45086</v>
+      </c>
+      <c r="D2" s="2">
+        <v>45086</v>
+      </c>
+      <c r="E2" s="2">
+        <v>45086</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="43"/>
+      <c r="C3" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="39" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="44"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="39"/>
+    </row>
+    <row r="5" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="3"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="25">
-        <v>45086</v>
-      </c>
-      <c r="D2" s="25">
-        <v>45086</v>
-      </c>
-      <c r="E2" s="25">
-        <v>45086</v>
-      </c>
-      <c r="F2" s="25">
-        <v>45086</v>
-      </c>
-      <c r="G2" s="25">
-        <v>45086</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="26"/>
-      <c r="C3" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="D3" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="26" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-    </row>
-    <row r="5" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="27" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="26"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-    </row>
-    <row r="7" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="E7" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="F7" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="G7" s="23" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-    </row>
-    <row r="9" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="19" t="s">
+    </row>
+    <row r="8" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" s="19" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-    </row>
-    <row r="11" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="20" t="s">
+      <c r="C9" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="6"/>
+      <c r="C10" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" s="20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-    </row>
-    <row r="13" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="21" t="s">
+      <c r="C11" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="8"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+    </row>
+    <row r="13" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="G13" s="21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-    </row>
-    <row r="15" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="22" t="s">
+      <c r="C13" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+    </row>
+    <row r="15" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" s="22" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
+      <c r="C15" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B19" s="4"/>
+      <c r="B19" s="13"/>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20" s="4"/>
+      <c r="B20" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="B5:B6"/>
+  <mergeCells count="26">
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D3:D4"/>
     <mergeCell ref="D5:D6"/>
+    <mergeCell ref="C3:C4"/>
     <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="B13:B14"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D7:D8"/>
     <mergeCell ref="B15:B16"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D3:D4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1140,103 +1424,153 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F9F5892-2A91-4B0E-8867-EA68673FF539}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="134.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.33203125" style="46" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" style="46" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="131.44140625" style="46" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="46"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="30"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="37"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="16"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="B8" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="C8" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>52</v>
-      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
+      <c r="A9" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" s="16"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="C10" s="16"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="C11" s="16"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="C12" s="16"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="C13" s="16"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="C14" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1250,177 +1584,115 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{305A963E-EF6C-4943-AC23-373E3F871336}">
-  <dimension ref="B1:G20"/>
+  <dimension ref="B1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="E2" sqref="E2:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="28.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.44140625" customWidth="1"/>
-    <col min="5" max="5" width="32" customWidth="1"/>
-    <col min="6" max="6" width="6.109375" customWidth="1"/>
-    <col min="7" max="7" width="17.6640625" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="14"/>
+    <col min="2" max="2" width="31.21875" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.88671875" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.109375" style="14" customWidth="1"/>
+    <col min="7" max="7" width="18" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="D2" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>33</v>
+      <c r="G2" s="17" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="G3" s="9"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="33"/>
+      <c r="G3" s="17"/>
     </row>
     <row r="4" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="G4" s="10" t="s">
+      <c r="B4" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="G4" s="19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="18"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="G5" s="19" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="6"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="G5" s="10" t="s">
+    <row r="6" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="G6" s="19" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="G6" s="10" t="s">
+    <row r="7" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="G7" s="19" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="G7" s="10" t="s">
+    <row r="8" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="G8" s="19" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="G8" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
     <row r="9" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
     </row>
     <row r="10" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
     </row>
     <row r="11" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1439,80 +1711,82 @@
   <dimension ref="B2:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="14"/>
+    <col min="2" max="2" width="30.44140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.77734375" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.6640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="14"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="37" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B3" s="30"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="37"/>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="2" t="s">
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="15" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="15"/>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B6" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="15"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="2"/>
+      <c r="C8" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1529,182 +1803,192 @@
   <dimension ref="B1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="35.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="14"/>
+    <col min="2" max="2" width="24.6640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.77734375" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.21875" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="14"/>
+    <col min="8" max="8" width="27" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="32"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="34"/>
+    </row>
+    <row r="4" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+    </row>
+    <row r="6" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+    </row>
+    <row r="8" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-    </row>
-    <row r="4" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="F4" s="11" t="s">
+      <c r="F8" s="24" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="23"/>
+      <c r="C9" s="24" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="5" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-    </row>
-    <row r="6" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" s="12" t="s">
+      <c r="D9" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D10" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="25"/>
+      <c r="C11" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="E6" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-    </row>
-    <row r="8" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="13"/>
-      <c r="C9" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="15"/>
-      <c r="C11" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="17" t="s">
+      <c r="D12" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+    </row>
+    <row r="13" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="27"/>
+      <c r="C13" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-    </row>
-    <row r="13" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="17"/>
-      <c r="C13" s="18" t="s">
+      <c r="D13" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="D13" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="C2:C3"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="D6:D7"/>
@@ -1716,13 +2000,6 @@
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B10:B11"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="C2:C3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1730,90 +2007,102 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91CD3627-A45A-4CEA-8014-93090F01640E}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="B2:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.44140625" customWidth="1"/>
-    <col min="3" max="3" width="35.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="14"/>
+    <col min="2" max="2" width="15.88671875" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.33203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.88671875" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B2" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B3" s="30"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="29"/>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" s="15"/>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B6" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="B3" s="2" t="s">
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C7" s="16" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="2"/>
+      <c r="D7" s="15"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="15"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="15"/>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="15"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="15"/>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="15"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="15"/>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="15"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/grupo_1_tarefas_gd1_2022_2023.xlsx
+++ b/grupo_1_tarefas_gd1_2022_2023.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grupolusofona-my.sharepoint.com/personal/a22204782_alunos_ulht_pt/Documents/Desktop/fcul/GD1/pedro/TP2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e04e61c3d21d2551/Ambiente de Trabalho/GD2/GD2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="648" documentId="8_{56E209A3-188A-46A9-A455-D8A92E3F104C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{478651B1-0789-469F-AC6B-FDA2C9F0BFF0}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{5E3774B1-5A44-4DED-A034-4C696ED43863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DBA241CD-7475-4815-B6EC-92A74F44FA22}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{723344A6-F7A6-4053-B57C-0AA1409AC582}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{723344A6-F7A6-4053-B57C-0AA1409AC582}"/>
   </bookViews>
   <sheets>
     <sheet name="Geral" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="112">
   <si>
     <t>Roles</t>
   </si>
@@ -352,10 +352,31 @@
     <t>Unity build</t>
   </si>
   <si>
-    <t>game mechanics</t>
-  </si>
-  <si>
     <t>JM/JC/V</t>
+  </si>
+  <si>
+    <t>Jump</t>
+  </si>
+  <si>
+    <t>Charged Jump</t>
+  </si>
+  <si>
+    <t>Rope Climb</t>
+  </si>
+  <si>
+    <t>The Player jumps by having a slider that allows them to jump higher or lower depending on the slider</t>
+  </si>
+  <si>
+    <t>The Player jumps vertically by charging down instead of up, allowing for more verticality instead of horizontal movement</t>
+  </si>
+  <si>
+    <t>Stalagmite Throw</t>
+  </si>
+  <si>
+    <t>Throw a stalagmite at targets, if they land on the floor or wall, you can jump on top of them.</t>
+  </si>
+  <si>
+    <t>Use a rope you can swing in.</t>
   </si>
 </sst>
 </file>
@@ -755,7 +776,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -763,34 +784,7 @@
     <xf numFmtId="16" fontId="3" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -801,90 +795,120 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -907,10 +931,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1228,7 +1248,7 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="2">
@@ -1242,155 +1262,158 @@
       </c>
     </row>
     <row r="3" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="43"/>
-      <c r="C3" s="45" t="s">
+      <c r="B3" s="18"/>
+      <c r="C3" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="40" t="s">
+      <c r="D3" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="39" t="s">
+      <c r="E3" s="28" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="44"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="39"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="28"/>
     </row>
     <row r="5" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="24" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="3"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
     </row>
     <row r="7" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="25" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
     </row>
     <row r="9" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="24" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="6"/>
-      <c r="C10" s="7" t="s">
+      <c r="B10" s="26"/>
+      <c r="C10" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="E10" s="4"/>
+      <c r="E10" s="24"/>
     </row>
     <row r="11" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="20" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="8"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
     </row>
     <row r="13" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="17" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
     </row>
     <row r="15" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="16" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="16" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B19" s="13"/>
+      <c r="B19" s="4"/>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20" s="13"/>
+      <c r="B20" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E9:E10"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="C7:C8"/>
@@ -1398,12 +1421,6 @@
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="E7:E8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="E9:E10"/>
     <mergeCell ref="E15:E16"/>
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="D13:D14"/>
@@ -1417,6 +1434,9 @@
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1427,150 +1447,150 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.33203125" style="46" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.109375" style="46" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="131.44140625" style="46" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="46"/>
+    <col min="1" max="1" width="31.33203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="131.44140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="33" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="30"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="37"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="33"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C3" s="16"/>
+      <c r="C3" s="7"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="7" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="7" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="7" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="7" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="7" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="B9" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="C9" s="16"/>
+      <c r="C9" s="7" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="C10" s="16"/>
+      <c r="A10" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="C11" s="16"/>
+      <c r="A11" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="C12" s="16"/>
+      <c r="A12" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="C13" s="16"/>
+      <c r="A13" s="47"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="47"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="C14" s="16"/>
+      <c r="A14" s="47"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1592,19 +1612,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="14"/>
-    <col min="2" max="2" width="31.21875" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.88671875" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.109375" style="14" customWidth="1"/>
-    <col min="7" max="7" width="18" style="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="14"/>
+    <col min="1" max="1" width="8.88671875" style="5"/>
+    <col min="2" max="2" width="31.21875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.109375" style="5" customWidth="1"/>
+    <col min="7" max="7" width="18" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="34" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="35" t="s">
@@ -1613,86 +1633,86 @@
       <c r="D2" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="37" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="32"/>
+      <c r="B3" s="34"/>
       <c r="C3" s="35"/>
       <c r="D3" s="35"/>
-      <c r="E3" s="33"/>
-      <c r="G3" s="17"/>
+      <c r="E3" s="36"/>
+      <c r="G3" s="37"/>
     </row>
     <row r="4" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="G4" s="19" t="s">
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="G4" s="9" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="18"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="G5" s="19" t="s">
+      <c r="B5" s="8"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="G5" s="9" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="G6" s="19" t="s">
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="G6" s="9" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="G7" s="19" t="s">
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="G7" s="9" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="G8" s="19" t="s">
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="G8" s="9" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
     </row>
     <row r="10" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
     </row>
     <row r="11" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1716,77 +1736,77 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="14"/>
-    <col min="2" max="2" width="30.44140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.77734375" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.6640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="14"/>
+    <col min="1" max="1" width="8.88671875" style="5"/>
+    <col min="2" max="2" width="30.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="33" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B3" s="30"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="37"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="33"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="15"/>
+      <c r="D5" s="6"/>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="6" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="15"/>
+      <c r="D7" s="6"/>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="15"/>
+      <c r="D8" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1808,20 +1828,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="14"/>
-    <col min="2" max="2" width="24.6640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.77734375" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.21875" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="14"/>
-    <col min="8" max="8" width="27" style="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="14"/>
+    <col min="1" max="1" width="8.88671875" style="5"/>
+    <col min="2" max="2" width="24.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.21875" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="5"/>
+    <col min="8" max="8" width="27" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="34" t="s">
         <v>44</v>
       </c>
       <c r="C2" s="35" t="s">
@@ -1830,155 +1850,155 @@
       <c r="D2" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="34" t="s">
+      <c r="F2" s="43" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="32"/>
+      <c r="B3" s="34"/>
       <c r="C3" s="35"/>
       <c r="D3" s="35"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="34"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="43"/>
     </row>
     <row r="4" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="40" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
     </row>
     <row r="6" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="39" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
     </row>
     <row r="8" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="11" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="23"/>
-      <c r="C9" s="24" t="s">
+      <c r="B9" s="41"/>
+      <c r="C9" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="E9" s="24" t="s">
+      <c r="E9" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="F9" s="24" t="s">
+      <c r="F9" s="11" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="E10" s="26" t="s">
+      <c r="E10" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="F10" s="26" t="s">
+      <c r="F10" s="12" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="25"/>
-      <c r="C11" s="26" t="s">
+      <c r="B11" s="42"/>
+      <c r="C11" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="E11" s="26" t="s">
+      <c r="E11" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="26" t="s">
+      <c r="F11" s="12" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="D12" s="28" t="s">
+      <c r="D12" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
     </row>
     <row r="13" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="27"/>
-      <c r="C13" s="28" t="s">
+      <c r="B13" s="38"/>
+      <c r="C13" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="D13" s="28" t="s">
+      <c r="D13" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -2015,88 +2035,88 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="14"/>
-    <col min="2" max="2" width="15.88671875" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.33203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.88671875" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="14"/>
+    <col min="1" max="1" width="8.88671875" style="5"/>
+    <col min="2" max="2" width="15.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="46" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B3" s="30"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="29"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="46"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="6" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="D5" s="15"/>
+      <c r="D5" s="6"/>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="6" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="D7" s="15"/>
+      <c r="D7" s="6"/>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B8" s="15"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="15"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="6"/>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B9" s="15"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="15"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="6"/>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B10" s="15"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="15"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="6"/>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B11" s="15"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="15"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/grupo_1_tarefas_gd1_2022_2023.xlsx
+++ b/grupo_1_tarefas_gd1_2022_2023.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e04e61c3d21d2551/Ambiente de Trabalho/GD2/GD2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaos\OneDrive\Ambiente de Trabalho\GD2\GD2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{5E3774B1-5A44-4DED-A034-4C696ED43863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DBA241CD-7475-4815-B6EC-92A74F44FA22}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CFC828F-C337-4DAF-97B5-461B74ADB489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{723344A6-F7A6-4053-B57C-0AA1409AC582}"/>
   </bookViews>
@@ -364,12 +364,6 @@
     <t>Rope Climb</t>
   </si>
   <si>
-    <t>The Player jumps by having a slider that allows them to jump higher or lower depending on the slider</t>
-  </si>
-  <si>
-    <t>The Player jumps vertically by charging down instead of up, allowing for more verticality instead of horizontal movement</t>
-  </si>
-  <si>
     <t>Stalagmite Throw</t>
   </si>
   <si>
@@ -377,6 +371,12 @@
   </si>
   <si>
     <t>Use a rope you can swing in.</t>
+  </si>
+  <si>
+    <t>The Player jumps by having a preview that allows them to jump higher or lower</t>
+  </si>
+  <si>
+    <t>The Player jumps vertically by charging down instead of spacebar, allowing for more verticality instead of horizontal movement</t>
   </si>
 </sst>
 </file>
@@ -776,7 +776,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -815,51 +815,51 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -881,35 +881,32 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1262,65 +1259,65 @@
       </c>
     </row>
     <row r="3" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="18"/>
-      <c r="C3" s="30" t="s">
+      <c r="B3" s="25"/>
+      <c r="C3" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="20" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="19"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="28"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="20"/>
     </row>
     <row r="5" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="19" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="23"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
     </row>
     <row r="7" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="E7" s="25" t="s">
+      <c r="E7" s="21" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
     </row>
     <row r="9" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="29" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -1329,79 +1326,79 @@
       <c r="D9" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="E9" s="24" t="s">
+      <c r="E9" s="19" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="26"/>
+      <c r="B10" s="29"/>
       <c r="C10" s="3" t="s">
         <v>98</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="E10" s="24"/>
+      <c r="E10" s="19"/>
     </row>
     <row r="11" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="E11" s="17" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="27"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
     </row>
     <row r="13" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="E13" s="17" t="s">
+      <c r="E13" s="16" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
     </row>
     <row r="15" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="24" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="16" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" s="4"/>
@@ -1411,16 +1408,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="E7:E8"/>
     <mergeCell ref="E15:E16"/>
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="D13:D14"/>
@@ -1437,6 +1424,16 @@
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="E7:E8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1444,10 +1441,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F9F5892-2A91-4B0E-8867-EA68673FF539}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1546,7 +1543,7 @@
         <v>103</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -1557,18 +1554,18 @@
         <v>24</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>24</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -1579,18 +1576,8 @@
         <v>24</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="47"/>
-      <c r="B13" s="47"/>
-      <c r="C13" s="47"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="47"/>
-      <c r="B14" s="47"/>
-      <c r="C14" s="47"/>
+        <v>109</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1850,10 +1837,10 @@
       <c r="D2" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="E2" s="44" t="s">
+      <c r="E2" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="43" t="s">
+      <c r="F2" s="38" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1861,59 +1848,59 @@
       <c r="B3" s="34"/>
       <c r="C3" s="35"/>
       <c r="D3" s="35"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="43"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="38"/>
     </row>
     <row r="4" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="D4" s="40" t="s">
+      <c r="D4" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="E4" s="40" t="s">
+      <c r="E4" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="F4" s="40" t="s">
+      <c r="F4" s="39" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
     </row>
     <row r="6" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="39" t="s">
+      <c r="D6" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="E6" s="39" t="s">
+      <c r="E6" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="39" t="s">
+      <c r="F6" s="40" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
     </row>
     <row r="8" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="43" t="s">
         <v>54</v>
       </c>
       <c r="C8" s="11" t="s">
@@ -1930,7 +1917,7 @@
       </c>
     </row>
     <row r="9" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="41"/>
+      <c r="B9" s="43"/>
       <c r="C9" s="11" t="s">
         <v>65</v>
       </c>
@@ -1945,7 +1932,7 @@
       </c>
     </row>
     <row r="10" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="44" t="s">
         <v>55</v>
       </c>
       <c r="C10" s="12" t="s">
@@ -1962,7 +1949,7 @@
       </c>
     </row>
     <row r="11" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="42"/>
+      <c r="B11" s="44"/>
       <c r="C11" s="12" t="s">
         <v>62</v>
       </c>
@@ -1977,7 +1964,7 @@
       </c>
     </row>
     <row r="12" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="42" t="s">
         <v>71</v>
       </c>
       <c r="C12" s="13" t="s">
@@ -1990,7 +1977,7 @@
       <c r="F12" s="13"/>
     </row>
     <row r="13" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="38"/>
+      <c r="B13" s="42"/>
       <c r="C13" s="13" t="s">
         <v>72</v>
       </c>
@@ -2002,13 +1989,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="C2:C3"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="D6:D7"/>
@@ -2020,6 +2000,13 @@
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B10:B11"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="C2:C3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/grupo_1_tarefas_gd1_2022_2023.xlsx
+++ b/grupo_1_tarefas_gd1_2022_2023.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaos\OneDrive\Ambiente de Trabalho\GD2\GD2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e04e61c3d21d2551/Ambiente de Trabalho/GD2/GD2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CFC828F-C337-4DAF-97B5-461B74ADB489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{7CFC828F-C337-4DAF-97B5-461B74ADB489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D38A89A6-2E70-49C9-9426-59C8295E4B5E}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{723344A6-F7A6-4053-B57C-0AA1409AC582}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{723344A6-F7A6-4053-B57C-0AA1409AC582}"/>
   </bookViews>
   <sheets>
     <sheet name="Geral" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="113">
   <si>
     <t>Roles</t>
   </si>
@@ -377,6 +377,9 @@
   </si>
   <si>
     <t>The Player jumps vertically by charging down instead of spacebar, allowing for more verticality instead of horizontal movement</t>
+  </si>
+  <si>
+    <t>agendar teestes</t>
   </si>
 </sst>
 </file>
@@ -815,51 +818,51 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -881,25 +884,25 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1259,65 +1262,65 @@
       </c>
     </row>
     <row r="3" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="25"/>
-      <c r="C3" s="23" t="s">
+      <c r="B3" s="18"/>
+      <c r="C3" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="28" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="26"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="20"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="28"/>
     </row>
     <row r="5" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="24" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="28"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
     </row>
     <row r="7" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="25" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
     </row>
     <row r="9" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="26" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -1326,79 +1329,79 @@
       <c r="D9" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="24" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="29"/>
+      <c r="B10" s="26"/>
       <c r="C10" s="3" t="s">
         <v>98</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="E10" s="19"/>
+      <c r="E10" s="24"/>
     </row>
     <row r="11" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="20" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="30"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
     </row>
     <row r="13" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="17" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
     </row>
     <row r="15" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="D15" s="24" t="s">
+      <c r="D15" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="E15" s="24" t="s">
+      <c r="E15" s="16" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="16" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" s="4"/>
@@ -1408,6 +1411,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="E7:E8"/>
     <mergeCell ref="E15:E16"/>
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="D13:D14"/>
@@ -1424,16 +1437,6 @@
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="E7:E8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1441,10 +1444,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F9F5892-2A91-4B0E-8867-EA68673FF539}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1577,6 +1580,11 @@
       </c>
       <c r="C12" s="7" t="s">
         <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C16" s="15" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1809,7 +1817,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D74AAC2-671B-4EFE-8379-90A9D68DACC9}">
   <dimension ref="B1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
@@ -1837,10 +1845,10 @@
       <c r="D2" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="E2" s="41" t="s">
+      <c r="E2" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="38" t="s">
+      <c r="F2" s="43" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1848,59 +1856,59 @@
       <c r="B3" s="34"/>
       <c r="C3" s="35"/>
       <c r="D3" s="35"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="38"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="43"/>
     </row>
     <row r="4" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="D4" s="39" t="s">
+      <c r="D4" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="E4" s="39" t="s">
+      <c r="E4" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="F4" s="39" t="s">
+      <c r="F4" s="40" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
     </row>
     <row r="6" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="40" t="s">
+      <c r="D6" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="E6" s="40" t="s">
+      <c r="E6" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="40" t="s">
+      <c r="F6" s="39" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
     </row>
     <row r="8" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="41" t="s">
         <v>54</v>
       </c>
       <c r="C8" s="11" t="s">
@@ -1917,7 +1925,7 @@
       </c>
     </row>
     <row r="9" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="43"/>
+      <c r="B9" s="41"/>
       <c r="C9" s="11" t="s">
         <v>65</v>
       </c>
@@ -1932,7 +1940,7 @@
       </c>
     </row>
     <row r="10" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="42" t="s">
         <v>55</v>
       </c>
       <c r="C10" s="12" t="s">
@@ -1949,7 +1957,7 @@
       </c>
     </row>
     <row r="11" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="44"/>
+      <c r="B11" s="42"/>
       <c r="C11" s="12" t="s">
         <v>62</v>
       </c>
@@ -1964,7 +1972,7 @@
       </c>
     </row>
     <row r="12" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="38" t="s">
         <v>71</v>
       </c>
       <c r="C12" s="13" t="s">
@@ -1977,7 +1985,7 @@
       <c r="F12" s="13"/>
     </row>
     <row r="13" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="42"/>
+      <c r="B13" s="38"/>
       <c r="C13" s="13" t="s">
         <v>72</v>
       </c>
@@ -1989,6 +1997,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="C2:C3"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="D6:D7"/>
@@ -2000,13 +2015,6 @@
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B10:B11"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="C2:C3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/grupo_1_tarefas_gd1_2022_2023.xlsx
+++ b/grupo_1_tarefas_gd1_2022_2023.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaos\OneDrive\Ambiente de Trabalho\GD2\GD2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grupolusofona-my.sharepoint.com/personal/a22204782_alunos_ulht_pt/Documents/Desktop/fcul/GD1/pedro/TP2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CFC828F-C337-4DAF-97B5-461B74ADB489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="232" documentId="13_ncr:1_{7CFC828F-C337-4DAF-97B5-461B74ADB489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9032ABA9-6E1C-49B0-BD1A-9B632C8E9B0D}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{723344A6-F7A6-4053-B57C-0AA1409AC582}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{723344A6-F7A6-4053-B57C-0AA1409AC582}"/>
   </bookViews>
   <sheets>
     <sheet name="Geral" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="138">
   <si>
     <t>Roles</t>
   </si>
@@ -124,24 +124,6 @@
     <t>Requires less overall work and less heavy on play</t>
   </si>
   <si>
-    <t>VS = ~1 hour</t>
-  </si>
-  <si>
-    <t>S = ~1 Day</t>
-  </si>
-  <si>
-    <t>M = ~1 week</t>
-  </si>
-  <si>
-    <t>L = ~2 weeks</t>
-  </si>
-  <si>
-    <t>VL = ~1 month</t>
-  </si>
-  <si>
-    <t>General Task Timer</t>
-  </si>
-  <si>
     <t>Responsibilities</t>
   </si>
   <si>
@@ -157,9 +139,6 @@
     <t>Keeps everyone up-to-date</t>
   </si>
   <si>
-    <t>Update Design Document</t>
-  </si>
-  <si>
     <t>Art Assets</t>
   </si>
   <si>
@@ -283,9 +262,6 @@
     <t>Completed Tasks</t>
   </si>
   <si>
-    <t>Okapi Kit</t>
-  </si>
-  <si>
     <t>V/JM</t>
   </si>
   <si>
@@ -298,33 +274,15 @@
     <t>macro</t>
   </si>
   <si>
-    <t>jm</t>
-  </si>
-  <si>
-    <t>v and prof helped</t>
-  </si>
-  <si>
-    <t>design</t>
-  </si>
-  <si>
-    <t>jc, v</t>
-  </si>
-  <si>
     <t>proto</t>
   </si>
   <si>
     <t>basic idea for game</t>
   </si>
   <si>
-    <t>jm, v</t>
-  </si>
-  <si>
     <t>find 5 game testers</t>
   </si>
   <si>
-    <t>c#, unity</t>
-  </si>
-  <si>
     <t>basic sounds for character and obstacles</t>
   </si>
   <si>
@@ -377,6 +335,126 @@
   </si>
   <si>
     <t>The Player jumps vertically by charging down instead of spacebar, allowing for more verticality instead of horizontal movement</t>
+  </si>
+  <si>
+    <t>c#, unity (okapikit)</t>
+  </si>
+  <si>
+    <t>tbd</t>
+  </si>
+  <si>
+    <t>whole art of the game in lofi (all squares and triangles)</t>
+  </si>
+  <si>
+    <t>background music (using existing one)</t>
+  </si>
+  <si>
+    <t>pc and mobile</t>
+  </si>
+  <si>
+    <t>prototipo</t>
+  </si>
+  <si>
+    <t>initial prototype done in unity</t>
+  </si>
+  <si>
+    <t>prototype</t>
+  </si>
+  <si>
+    <t>ficha de design</t>
+  </si>
+  <si>
+    <t>JC/V</t>
+  </si>
+  <si>
+    <t>folha tarefas</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>plano prototipagem e testes</t>
+  </si>
+  <si>
+    <t>JM/V</t>
+  </si>
+  <si>
+    <t>relatorio testes</t>
+  </si>
+  <si>
+    <t>JC</t>
+  </si>
+  <si>
+    <t>Cálculo Horas-Pessoa</t>
+  </si>
+  <si>
+    <t>pessoas</t>
+  </si>
+  <si>
+    <t>horas por dia</t>
+  </si>
+  <si>
+    <t>dias por semana</t>
+  </si>
+  <si>
+    <t>total semanas</t>
+  </si>
+  <si>
+    <t>total horas</t>
+  </si>
+  <si>
+    <t>Diferença Horas</t>
+  </si>
+  <si>
+    <t>Média horas por tarefa</t>
+  </si>
+  <si>
+    <t>ficha design</t>
+  </si>
+  <si>
+    <t>JM/JC</t>
+  </si>
+  <si>
+    <t>update each version of prototype with new changes</t>
+  </si>
+  <si>
+    <t>update each version of design document with new changes</t>
+  </si>
+  <si>
+    <t>testes</t>
+  </si>
+  <si>
+    <t>plano prot e testes</t>
+  </si>
+  <si>
+    <t>prot simples para saltar entre plataformas</t>
+  </si>
+  <si>
+    <t>V and prof helped</t>
+  </si>
+  <si>
+    <t>relatorio de testes com 4 a 6 perguntas para game testers responderem apos a sua experiencia com o prot</t>
+  </si>
+  <si>
+    <t>duvidas acerca de prototipagem e testes esclarecidas aqui</t>
+  </si>
+  <si>
+    <t>Terminadas</t>
+  </si>
+  <si>
+    <t>Asstes</t>
+  </si>
+  <si>
+    <t>Contínuas</t>
+  </si>
+  <si>
+    <t>Individual</t>
+  </si>
+  <si>
+    <t>Decisões</t>
+  </si>
+  <si>
+    <t>Geral</t>
   </si>
 </sst>
 </file>
@@ -473,7 +551,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -508,47 +586,6 @@
       </top>
       <bottom style="medium">
         <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right style="medium">
-        <color theme="1"/>
-      </right>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right style="medium">
-        <color theme="1"/>
-      </right>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right style="medium">
-        <color theme="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -594,21 +631,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -691,222 +713,227 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="0"/>
+      <left style="medium">
+        <color indexed="64"/>
       </left>
       <right style="medium">
-        <color theme="1"/>
+        <color indexed="64"/>
       </right>
       <top style="medium">
-        <color theme="1"/>
+        <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="medium">
-        <color theme="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="0"/>
+        <color indexed="64"/>
       </left>
-      <right/>
-      <top style="medium">
-        <color theme="1"/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color theme="1"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right style="medium">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="medium">
-        <color theme="1"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color theme="1"/>
+        <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -928,6 +955,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1227,890 +1258,1099 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EE9D655-58CD-4624-982D-FA45469B059D}">
-  <dimension ref="B1:E20"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B2:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="36.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="1"/>
+    <col min="3" max="4" width="34.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="14" t="s">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B2" s="49" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+    </row>
+    <row r="3" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C3" s="14">
         <v>45086</v>
       </c>
-      <c r="D2" s="2">
-        <v>45086</v>
-      </c>
-      <c r="E2" s="2">
-        <v>45086</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="25"/>
-      <c r="C3" s="23" t="s">
+      <c r="D3" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B4" s="18"/>
+      <c r="C4" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D4" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E4" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="18" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="26"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="20"/>
-    </row>
-    <row r="5" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="27" t="s">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C6" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="E5" s="19" t="s">
+      <c r="D6" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="F6" s="20" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="28"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-    </row>
-    <row r="7" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="21" t="s">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="18"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C8" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B11" s="22"/>
+      <c r="C11" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="F11" s="23"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B12" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B14" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B16" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="F16" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="E7" s="21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-    </row>
-    <row r="9" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="29"/>
-      <c r="C10" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="E10" s="19"/>
-    </row>
-    <row r="11" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="30"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-    </row>
-    <row r="13" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-    </row>
-    <row r="15" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="D15" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="E15" s="24" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B19" s="4"/>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20" s="4"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="E7:E8"/>
+  <mergeCells count="33">
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="95" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F9F5892-2A91-4B0E-8867-EA68673FF539}">
-  <dimension ref="A1:C12"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B2:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.33203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="131.44140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="15"/>
+    <col min="1" max="1" width="3.109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="131.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="32" t="s">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B2" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B3" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="D3" s="26" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="31"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="33"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="24"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="26"/>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C3" s="7"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+      <c r="C5" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="C6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="D6" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="C7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="D7" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="C8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="D8" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="7" t="s">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="7" t="s">
+      <c r="D9" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
+      <c r="D10" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B12" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B13" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B14" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B15" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>109</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
+  <mergeCells count="4">
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="B2:D2"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="78" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{305A963E-EF6C-4943-AC23-373E3F871336}">
-  <dimension ref="B1:G11"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B2:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E3"/>
+      <selection activeCell="B3" sqref="B3:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="5"/>
-    <col min="2" max="2" width="31.21875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.109375" style="5" customWidth="1"/>
-    <col min="7" max="7" width="18" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="5"/>
+    <col min="1" max="1" width="3" style="8" customWidth="1"/>
+    <col min="2" max="2" width="31.21875" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.6640625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="14.77734375" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.21875" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="45" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+    </row>
+    <row r="3" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C3" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D3" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="37" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="34"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="36"/>
-      <c r="G3" s="37"/>
+      <c r="F3" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="G3" s="29"/>
     </row>
     <row r="4" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="27"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+    </row>
+    <row r="5" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="9">
+        <v>25</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="G5" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="D6" s="9">
+        <v>20</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="G6" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="9">
+        <v>15</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="G7" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="9">
+        <v>5</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="G8" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D9" s="9">
+        <v>10</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="G9" s="12">
+        <f>$G$5*$G$6*$G$7*$G$8</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="D10" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" s="9">
+        <f>COUNTA($C$5:$C$10)</f>
+        <v>6</v>
+      </c>
+      <c r="D11" s="9">
+        <f>SUM($D$5:$D$10)</f>
         <v>80</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="G4" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="8"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="G5" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="G6" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="G7" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="G8" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-    </row>
-    <row r="10" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-    </row>
-    <row r="11" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
+      <c r="F11" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F12" s="11">
+        <f>$G$9-$D$11</f>
+        <v>10</v>
+      </c>
+      <c r="G12" s="8">
+        <f>ROUNDUP(80/6, 0)</f>
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="F3:G4"/>
+    <mergeCell ref="B2:G2"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9E9A128-1499-4DF2-BBE0-28E9BACBE1D8}">
-  <dimension ref="B2:D8"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B2:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="B3" sqref="B3:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="5"/>
-    <col min="2" max="2" width="30.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.77734375" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="5"/>
+    <col min="1" max="1" width="2.5546875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="30.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.77734375" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="8"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="46" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B3" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="24"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="26"/>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B6" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="33" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B3" s="31"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="33"/>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B4" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="7" t="s">
+      <c r="C9" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B5" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="6"/>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B6" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B7" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B8" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="6"/>
+      <c r="D9" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
+  <mergeCells count="4">
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="B2:D2"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D74AAC2-671B-4EFE-8379-90A9D68DACC9}">
-  <dimension ref="B1:F13"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B2:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="B2" sqref="B2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="5"/>
-    <col min="2" max="2" width="24.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.77734375" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.21875" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="5"/>
-    <col min="8" max="8" width="27" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="5"/>
+    <col min="1" max="1" width="2.5546875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.77734375" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.21875" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="8"/>
+    <col min="8" max="8" width="27" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="35" t="s">
+      <c r="B2" s="47" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+    </row>
+    <row r="3" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="27"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="35"/>
+    </row>
+    <row r="5" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="35" t="s">
+    </row>
+    <row r="6" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+    </row>
+    <row r="7" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="37" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+    </row>
+    <row r="9" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="30"/>
+      <c r="C10" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="E2" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="38" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="34"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="38"/>
-    </row>
-    <row r="4" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="39" t="s">
-        <v>76</v>
-      </c>
-      <c r="D4" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="E4" s="39" t="s">
-        <v>78</v>
-      </c>
-      <c r="F4" s="39" t="s">
+      <c r="D10" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="31"/>
+      <c r="C12" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="34" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="5" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-    </row>
-    <row r="6" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="D6" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="E6" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="F6" s="40" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-    </row>
-    <row r="8" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="43" t="s">
+      <c r="C13" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="43"/>
-      <c r="C9" s="11" t="s">
+      <c r="D13" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="32" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="34"/>
+      <c r="C14" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D14" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E9" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="44"/>
-      <c r="C11" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-    </row>
-    <row r="13" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="42"/>
-      <c r="C13" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="C2:C3"/>
+  <mergeCells count="21">
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="B13:B14"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91CD3627-A45A-4CEA-8014-93090F01640E}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="B2:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="B2" sqref="B2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="5"/>
-    <col min="2" max="2" width="15.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="5"/>
+    <col min="1" max="1" width="2.88671875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.109375" style="8" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="8"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B2" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="C2" s="45" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="46" t="s">
+      <c r="B2" s="46" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B3" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="40" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B3" s="31"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="46"/>
-    </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B4" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>83</v>
-      </c>
+      <c r="B4" s="24"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="40"/>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B5" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="D5" s="6"/>
+      <c r="B5" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B6" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>86</v>
+      <c r="B6" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B7" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D7" s="6"/>
+      <c r="B7" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B8" s="6"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="6"/>
+      <c r="B8" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B9" s="6"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="6"/>
+      <c r="B9" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="C9" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="D9" s="43" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B10" s="6"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="6"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="44"/>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B11" s="6"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="6"/>
+      <c r="B11" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>131</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
+  <mergeCells count="7">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>